--- a/Agile/Product_Backlog.xlsx
+++ b/Agile/Product_Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ameer\Desktop\Manual_Testing\Agile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F2708A-1512-45C9-8EBD-A3E903AD9BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4B42DA-D041-46CC-AD32-73605E7482C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -724,7 +724,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Agile/Product_Backlog.xlsx
+++ b/Agile/Product_Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ameer\Desktop\Manual_Testing\Agile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4B42DA-D041-46CC-AD32-73605E7482C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365723E5-503C-4DD7-BEE4-4AFF11E5C651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -724,7 +724,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Agile/Product_Backlog.xlsx
+++ b/Agile/Product_Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ameer\Desktop\Manual_Testing\Agile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365723E5-503C-4DD7-BEE4-4AFF11E5C651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BA90CC-E5EA-4507-BFCA-084A8A27F8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -596,13 +596,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
@@ -723,7 +723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF1B559-8A38-4520-AFD2-5FCEC94B032C}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
